--- a/fourtestcases.xlsx
+++ b/fourtestcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21556DE6-8E4C-4B9D-A840-855CFD11B735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715A772-F6D9-4746-9244-AF2CFF46E6D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>Pop up should be closed</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
   <si>
     <t>Approved</t>
@@ -579,7 +573,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +644,6 @@
       <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -773,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
